--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 8/Lab 8.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 8/Lab 8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338419DF-46F5-4B93-B752-C7675C894093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BE4709-6209-448B-84C2-189A55FACEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,60 +235,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,514 +595,515 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.640625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="20.625" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="7">
+      <c r="B2" s="17"/>
+      <c r="C2" s="14">
         <v>-2</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10">
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14">
         <v>2</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="11">
+      <c r="B3" s="12"/>
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
         <v>0</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="6">
         <v>-1</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="7">
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="18">
         <v>-2.5604999999999999E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>-2.0284</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>-4.0072000000000001</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>1.9716</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>3.9925999999999999</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>6.0674999999999999</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>3.9514</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>2.0247000000000002</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="18">
         <v>3.9409E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="6">
+    <row r="5" spans="1:11">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="3">
         <f>D4/(C2+D3)</f>
         <v>2.0284</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <f>E4/(C2+E3)</f>
         <v>2.0036</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <f>F4/(F2+F3)</f>
         <v>1.9716</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <f>G4/(G2+G3)</f>
         <v>1.9963</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <f>H4/($H$2+H3)</f>
         <v>2.0225</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <f>I4/($H$2+I3)</f>
         <v>1.9757</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <f>J4/($H$2+J3)</f>
         <v>2.0247000000000002</v>
       </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="18">
         <v>-1.3616E-2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>-1.0150999999999999</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>-2.0101</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="18">
         <v>1.00108</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>1.9945999999999999</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>3.0384000000000002</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>1.9862</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>1.0150999999999999</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="18">
         <v>2.9314E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="6">
+    <row r="7" spans="1:11">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="3">
         <f>D6/(C2+D3)</f>
         <v>1.0150999999999999</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="18">
         <f>E6/(C2+E3)</f>
         <v>1.00505</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="18">
         <f>F6/(F2+F3)</f>
         <v>1.00108</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <f>G6/(G2+G3)</f>
         <v>0.99729999999999996</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <f>H6/($H$2+H3)</f>
         <v>1.0128000000000001</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <f>I6/($H$2+I3)</f>
         <v>0.99309999999999998</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="18">
         <f>J6/($H$2+J3)</f>
         <v>1.0150999999999999</v>
       </c>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+      <c r="K7" s="9"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="7">
+      <c r="B10" s="17"/>
+      <c r="C10" s="14">
         <v>2</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
         <v>0</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="16">
+      <c r="B11" s="12"/>
+      <c r="C11" s="10">
         <v>2</v>
       </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="10">
         <v>-0.5</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="10">
         <v>-1</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="10">
         <v>2</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="10">
         <v>2</v>
       </c>
-      <c r="J11" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="20">
         <v>-4.7375E-2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="18">
         <v>2.1295999999999999</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="18">
         <v>4.0523999999999996</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="20">
         <v>5.1555999999999997</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="18">
         <v>6.0052000000000003</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="18">
         <v>-1.9346000000000001</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="18">
         <v>-3.9691999999999998</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="18">
         <v>-4.1584000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="6">
+    <row r="13" spans="1:11">
+      <c r="A13" s="12"/>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="18">
         <f>D12/(C10-D11)</f>
         <v>2.1295999999999999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="18">
         <f>E12/(C10-E11)</f>
         <v>2.0261999999999998</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="18">
         <f>F12/(C10-F11)</f>
         <v>2.0622400000000001</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="18">
         <f>G12/(C10-G11)</f>
         <v>2.0017333333333336</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="18">
         <f>H12/(H10-H11)</f>
         <v>1.9346000000000001</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="18">
         <f>I12/(I10-I11)</f>
         <v>1.9845999999999999</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="18">
         <f>J12/(J10-J11)</f>
         <v>2.0792000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="7">
+      <c r="B14" s="17"/>
+      <c r="C14" s="21">
         <v>2</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
         <v>0</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="23">
         <v>-1</v>
       </c>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="16">
+      <c r="B15" s="12"/>
+      <c r="C15" s="24">
         <v>2</v>
       </c>
-      <c r="D15" s="16">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24">
         <v>0</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="24">
         <v>-1</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="24">
         <v>-2</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="25">
         <v>2</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="18">
         <v>3.5102000000000001E-2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="18">
         <v>1.07884</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="18">
         <v>2.0524</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="18">
         <v>3.0424000000000002</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="20">
         <v>4.0755999999999997</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="18">
         <v>-0.98062000000000005</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="18">
         <v>-2.0114999999999998</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="18">
         <v>-2.9441000000000002</v>
       </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="6">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="12"/>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18">
         <f>D16/(C14-D15)</f>
         <v>1.07884</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="18">
         <f>E16/(C14-E15)</f>
         <v>1.0262</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="18">
         <f>F16/(C14-F15)</f>
         <v>1.0141333333333333</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="20">
         <f>G16/(C14-G15)</f>
         <v>1.0188999999999999</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="18">
         <f>H16/(H14-H15)</f>
         <v>0.98062000000000005</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="18">
         <f>I16/(I14-H15)</f>
         <v>1.0057499999999999</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="18">
         <f>J16/(J14-H15)</f>
         <v>0.98136666666666672</v>
       </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A4:A5"/>
@@ -1095,7 +1120,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
